--- a/csv files/exploratory-analysis.xlsx
+++ b/csv files/exploratory-analysis.xlsx
@@ -552,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1010778.54037126</v>
+        <v>1010778.55619466</v>
       </c>
       <c r="C2" t="n">
-        <v>56029.8521869034</v>
+        <v>56029.8531883961</v>
       </c>
     </row>
     <row r="3">
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5211900.97685015</v>
+        <v>5211900.93403096</v>
       </c>
       <c r="C3" t="n">
-        <v>112768.874417409</v>
+        <v>112768.87331931</v>
       </c>
     </row>
     <row r="4">
@@ -574,10 +574,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>15465632.7468122</v>
+        <v>15465632.8671702</v>
       </c>
       <c r="C4" t="n">
-        <v>212298.66506495</v>
+        <v>212298.665977734</v>
       </c>
     </row>
     <row r="5">
@@ -585,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>310488.86091887</v>
+        <v>310488.85911579</v>
       </c>
       <c r="C5" t="n">
-        <v>30018.7394347582</v>
+        <v>30018.7394068608</v>
       </c>
     </row>
     <row r="6">
@@ -596,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>91691321.1757119</v>
+        <v>91691320.8284423</v>
       </c>
       <c r="C6" t="n">
-        <v>404289.676958133</v>
+        <v>404289.672372345</v>
       </c>
     </row>
     <row r="7">
@@ -607,10 +607,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>1483323.90883239</v>
+        <v>1483323.92832458</v>
       </c>
       <c r="C7" t="n">
-        <v>68655.9482548517</v>
+        <v>68655.9493237728</v>
       </c>
     </row>
     <row r="8">
@@ -618,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>5891461.88025427</v>
+        <v>5891461.8363744</v>
       </c>
       <c r="C8" t="n">
-        <v>120877.429355472</v>
+        <v>120877.428262721</v>
       </c>
     </row>
     <row r="9">
@@ -629,10 +629,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>16551701.7671534</v>
+        <v>16551701.8978059</v>
       </c>
       <c r="C9" t="n">
-        <v>219830.026764</v>
+        <v>219830.027742163</v>
       </c>
     </row>
     <row r="10">
@@ -640,10 +640,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>435698.62363911</v>
+        <v>435698.62070658</v>
       </c>
       <c r="C10" t="n">
-        <v>35846.0446870156</v>
+        <v>35846.0445233111</v>
       </c>
     </row>
     <row r="11">
@@ -651,10 +651,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>95323650.2656038</v>
+        <v>95323649.9211976</v>
       </c>
       <c r="C11" t="n">
-        <v>407015.438581483</v>
+        <v>407015.434268148</v>
       </c>
     </row>
   </sheetData>
@@ -687,10 +687,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>16485296.1314038</v>
+        <v>16485296.0694359</v>
       </c>
       <c r="C2" t="n">
-        <v>208486.134020953</v>
+        <v>208486.133730899</v>
       </c>
     </row>
     <row r="3">
@@ -698,10 +698,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>105074588.576449</v>
+        <v>105074588.393523</v>
       </c>
       <c r="C3" t="n">
-        <v>410806.445170436</v>
+        <v>410806.441040054</v>
       </c>
     </row>
     <row r="4">
@@ -709,10 +709,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>16495579.6599874</v>
+        <v>16495579.598232</v>
       </c>
       <c r="C4" t="n">
-        <v>208454.769739364</v>
+        <v>208454.769460269</v>
       </c>
     </row>
     <row r="5">
@@ -720,10 +720,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>105064305.047865</v>
+        <v>105064304.864727</v>
       </c>
       <c r="C5" t="n">
-        <v>410855.576892237</v>
+        <v>410855.572757163</v>
       </c>
     </row>
   </sheetData>
@@ -756,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1010778.54037126</v>
+        <v>1010778.55619466</v>
       </c>
       <c r="C2" t="n">
-        <v>56029.8521868967</v>
+        <v>56029.8531883867</v>
       </c>
     </row>
     <row r="3">
@@ -767,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5211900.97685015</v>
+        <v>5211900.93403096</v>
       </c>
       <c r="C3" t="n">
-        <v>112768.87441741</v>
+        <v>112768.873319294</v>
       </c>
     </row>
     <row r="4">
@@ -778,10 +778,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>15465632.7468122</v>
+        <v>15465632.8671702</v>
       </c>
       <c r="C4" t="n">
-        <v>212298.665064913</v>
+        <v>212298.665977737</v>
       </c>
     </row>
     <row r="5">
@@ -789,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>310488.86091887</v>
+        <v>310488.85911579</v>
       </c>
       <c r="C5" t="n">
-        <v>30018.7394347556</v>
+        <v>30018.7394068599</v>
       </c>
     </row>
     <row r="6">
@@ -800,10 +800,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>77365034.6429297</v>
+        <v>77365034.3548615</v>
       </c>
       <c r="C6" t="n">
-        <v>399130.32394631</v>
+        <v>399130.319095328</v>
       </c>
     </row>
     <row r="7">
@@ -811,10 +811,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>1483323.90883239</v>
+        <v>1483323.92832458</v>
       </c>
       <c r="C7" t="n">
-        <v>68655.9482548471</v>
+        <v>68655.9493237768</v>
       </c>
     </row>
     <row r="8">
@@ -822,10 +822,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>5891461.88025427</v>
+        <v>5891461.8363744</v>
       </c>
       <c r="C8" t="n">
-        <v>120877.429355467</v>
+        <v>120877.428262709</v>
       </c>
     </row>
     <row r="9">
@@ -833,10 +833,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>16551701.7671534</v>
+        <v>16551701.8978059</v>
       </c>
       <c r="C9" t="n">
-        <v>219830.026763964</v>
+        <v>219830.027742208</v>
       </c>
     </row>
     <row r="10">
@@ -844,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>435698.62363911</v>
+        <v>435698.62070658</v>
       </c>
       <c r="C10" t="n">
-        <v>35846.0446870031</v>
+        <v>35846.0445233108</v>
       </c>
     </row>
     <row r="11">
@@ -855,10 +855,10 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>80549650.8745801</v>
+        <v>80549650.5940991</v>
       </c>
       <c r="C11" t="n">
-        <v>403204.502074238</v>
+        <v>403204.497542768</v>
       </c>
     </row>
   </sheetData>
@@ -1017,136 +1017,136 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00889064520221163</v>
+        <v>0.00889064536138852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000491830985325465</v>
+        <v>0.000491830995111543</v>
       </c>
       <c r="D2" t="n">
-        <v>30066.6012470434</v>
+        <v>30066.6006616955</v>
       </c>
       <c r="E2" t="n">
-        <v>1785.74709923629</v>
+        <v>1798.0598608857</v>
       </c>
       <c r="F2" t="n">
-        <v>161.362119288946</v>
+        <v>161.178697464948</v>
       </c>
       <c r="G2" t="n">
-        <v>13.8046854702053</v>
+        <v>13.7910996006197</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0202266944021494</v>
+        <v>0.0202266946669005</v>
       </c>
       <c r="I2" t="n">
-        <v>0.421873565156035</v>
+        <v>0.421873565234976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.557899740441815</v>
+        <v>0.557899740098124</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00766684077200643</v>
+        <v>0.0076668409900728</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0277556529972414</v>
+        <v>0.0277556530472905</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0278227292556704</v>
+        <v>0.0278227293143846</v>
       </c>
       <c r="N2" t="n">
-        <v>0.890421177437131</v>
+        <v>0.89042118052874</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0740014839629745</v>
+        <v>0.0740014809226526</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0355773385998946</v>
+        <v>0.035577338548607</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0201587472388341</v>
+        <v>0.0201587467502247</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0173664928573309</v>
+        <v>0.0173664921922291</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0109222323727345</v>
+        <v>0.0109222324619978</v>
       </c>
       <c r="T2" t="n">
-        <v>0.764364581002446</v>
+        <v>0.764364589834202</v>
       </c>
       <c r="U2" t="n">
-        <v>0.235635418997554</v>
+        <v>0.235635410165798</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0696950490688668</v>
+        <v>0.0696950471819644</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0696950490688668</v>
+        <v>0.0696950471819644</v>
       </c>
       <c r="X2" t="n">
-        <v>0.889076115488425</v>
+        <v>0.88907611683543</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.110923884511575</v>
+        <v>0.11092388316457</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0240805793498282</v>
+        <v>0.0240805790629859</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0240805793498282</v>
+        <v>0.0240805790629859</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0929177884872029</v>
+        <v>0.0929177858196393</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0109540169186252</v>
+        <v>0.0109540167599061</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0405617230132144</v>
+        <v>0.0405617229171254</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.223742141782942</v>
+        <v>0.223742142005519</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0317224809441471</v>
+        <v>0.0317224810016891</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.220330068413632</v>
+        <v>0.220330064789305</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1035620868004</v>
+        <v>0.103562083181066</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.185072504318256</v>
+        <v>0.185072514176996</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0911371893215787</v>
+        <v>0.0911371893487547</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0157710937106135</v>
+        <v>0.0157710932395199</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00610352281311578</v>
+        <v>0.00610352269096101</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0104352041964773</v>
+        <v>0.0104352042765774</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0243161446556653</v>
+        <v>0.0243161447581933</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0118149725196337</v>
+        <v>0.0118149725047995</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0226190514429703</v>
+        <v>0.0226190512001787</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0162985747348575</v>
+        <v>0.016298574294128</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0213079705074359</v>
+        <v>0.021307971402266</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0147655524210871</v>
+        <v>0.0147655525194681</v>
       </c>
     </row>
     <row r="3">
@@ -1154,13 +1154,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0458430413423849</v>
+        <v>0.0458430410688638</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000989954118785088</v>
+        <v>0.00098995411155934</v>
       </c>
       <c r="D3" t="n">
-        <v>74581.4982551205</v>
+        <v>74581.4998510668</v>
       </c>
       <c r="E3" t="n">
         <v>2295.96055616094</v>
@@ -1169,121 +1169,121 @@
         <v>385</v>
       </c>
       <c r="G3" t="n">
-        <v>9.4389489531061</v>
+        <v>9.62642360671595</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00910794745239935</v>
+        <v>0.00910794752197952</v>
       </c>
       <c r="I3" t="n">
-        <v>0.581621468178831</v>
+        <v>0.5816214709546</v>
       </c>
       <c r="J3" t="n">
-        <v>0.409270584368769</v>
+        <v>0.409270581523421</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00206917469402161</v>
+        <v>0.00206917470075296</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0108521417049573</v>
+        <v>0.0108521416639209</v>
       </c>
       <c r="M3" t="n">
-        <v>0.010818870748576</v>
+        <v>0.0108188707043559</v>
       </c>
       <c r="N3" t="n">
-        <v>0.939587921504435</v>
+        <v>0.939587920990962</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0420631467225028</v>
+        <v>0.0420631463546889</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0183489317730621</v>
+        <v>0.0183489326543495</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00629656324700073</v>
+        <v>0.00629656323758611</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00566903853285604</v>
+        <v>0.00566903843827596</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00274686086524529</v>
+        <v>0.00274686104536039</v>
       </c>
       <c r="T3" t="n">
-        <v>0.900872672459029</v>
+        <v>0.900872671605761</v>
       </c>
       <c r="U3" t="n">
-        <v>0.099127327540971</v>
+        <v>0.0991273283942394</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0160759930206932</v>
+        <v>0.0160759930299181</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0160759930206932</v>
+        <v>0.0160759930299181</v>
       </c>
       <c r="X3" t="n">
-        <v>0.971495320173376</v>
+        <v>0.971495319686873</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0285046798266236</v>
+        <v>0.028504680313127</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.00615690914425897</v>
+        <v>0.00615690928268862</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00615690914425897</v>
+        <v>0.00615690928268862</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0940318632756385</v>
+        <v>0.0940318646709429</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0175123221708562</v>
+        <v>0.0175123222698726</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.162486228892105</v>
+        <v>0.162486225500001</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0376011884377949</v>
+        <v>0.0376011883506142</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0408820119116695</v>
+        <v>0.0408820123058049</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.394517695478678</v>
+        <v>0.394517696494974</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.132032017792982</v>
+        <v>0.132032018150116</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0319189700527445</v>
+        <v>0.0319189693998915</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0890177019875313</v>
+        <v>0.0890177028577831</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.00653124142698894</v>
+        <v>0.00653124146105189</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.00343043131406868</v>
+        <v>0.00343043131890348</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.00918764768842408</v>
+        <v>0.00918764750814353</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.00440930997359167</v>
+        <v>0.00440930995993821</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.00409423364203468</v>
+        <v>0.00409423368761465</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0105296423396823</v>
+        <v>0.0105296423475682</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.00706446333757878</v>
+        <v>0.00706446340944623</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.00478248759295097</v>
+        <v>0.00478248749460228</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.00538427201063656</v>
+        <v>0.00538427207266513</v>
       </c>
     </row>
     <row r="4">
@@ -1291,16 +1291,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.136033214089716</v>
+        <v>0.13603321545433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0018024067779697</v>
+        <v>0.00180240678719677</v>
       </c>
       <c r="D4" t="n">
         <v>35000</v>
       </c>
       <c r="E4" t="n">
-        <v>592.662665585077</v>
+        <v>592.662668552425</v>
       </c>
       <c r="F4" t="n">
         <v>207</v>
@@ -1309,118 +1309,118 @@
         <v>3.82660092693491</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0196444646384793</v>
+        <v>0.0196444646815368</v>
       </c>
       <c r="I4" t="n">
-        <v>0.426307869515244</v>
+        <v>0.426307868970706</v>
       </c>
       <c r="J4" t="n">
-        <v>0.554047665846277</v>
+        <v>0.554047666347757</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00208655750134272</v>
+        <v>0.00208655750547654</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00710273828104716</v>
+        <v>0.00710273825615923</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00712894616520498</v>
+        <v>0.00712894614121978</v>
       </c>
       <c r="N4" t="n">
-        <v>0.771446618137767</v>
+        <v>0.771446620192091</v>
       </c>
       <c r="O4" t="n">
-        <v>0.112427038017592</v>
+        <v>0.112427036559129</v>
       </c>
       <c r="P4" t="n">
-        <v>0.116126343844641</v>
+        <v>0.11612634324878</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00687401336371367</v>
+        <v>0.00687401331167962</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00522222645205817</v>
+        <v>0.00522222637659337</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00485073109488146</v>
+        <v>0.00485073109137481</v>
       </c>
       <c r="T4" t="n">
-        <v>0.835003266369195</v>
+        <v>0.835003266920321</v>
       </c>
       <c r="U4" t="n">
-        <v>0.164996733630805</v>
+        <v>0.164996733079678</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0206507832223739</v>
+        <v>0.0206507833362329</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0206507832223739</v>
+        <v>0.0206507833362329</v>
       </c>
       <c r="X4" t="n">
-        <v>0.901139699265713</v>
+        <v>0.90113969943631</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0988603007342868</v>
+        <v>0.0988603005636901</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00560090263884412</v>
+        <v>0.00560090261815032</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.00560090263884412</v>
+        <v>0.00560090261815032</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.143276637703852</v>
+        <v>0.143276639740053</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.100573799914986</v>
+        <v>0.100573798692263</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.145271832053636</v>
+        <v>0.14527183103879</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0191028858163334</v>
+        <v>0.019102885464897</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0245584827694746</v>
+        <v>0.0245584829050998</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.0617867883715849</v>
+        <v>0.0617867879507327</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.332791517913187</v>
+        <v>0.332791519263225</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0328746341864957</v>
+        <v>0.0328746341545276</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.13976342127045</v>
+        <v>0.139763420790412</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.00492229126756354</v>
+        <v>0.00492229132241162</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.00465053658087507</v>
+        <v>0.00465053652503745</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.00548864035966735</v>
+        <v>0.00548864033663145</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.00181908383975404</v>
+        <v>0.00181908380183847</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.00210138769455409</v>
+        <v>0.00210138769009536</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.00297203505493356</v>
+        <v>0.0029720350326556</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.00662959190421567</v>
+        <v>0.00662959188200562</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.00310810355544359</v>
+        <v>0.00310810355477456</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.00454541150202428</v>
+        <v>0.00454541147195284</v>
       </c>
     </row>
     <row r="5">
@@ -1428,132 +1428,132 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00273101000012783</v>
+        <v>0.00273100999041078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000263917469005878</v>
+        <v>0.00026391746934787</v>
       </c>
       <c r="D5" t="n">
         <v>48000</v>
       </c>
       <c r="E5" t="n">
-        <v>5524.16405406397</v>
+        <v>5524.16417531321</v>
       </c>
       <c r="F5" t="n">
-        <v>238.621902330419</v>
+        <v>239</v>
       </c>
       <c r="G5" t="n">
-        <v>14.8399294986931</v>
+        <v>15.4780862458854</v>
       </c>
       <c r="H5" t="n">
-        <v>0.010047520654582</v>
+        <v>0.0100475199299715</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3387501764322</v>
+        <v>0.338750170071855</v>
       </c>
       <c r="J5" t="n">
-        <v>0.651202302913218</v>
+        <v>0.651202309998174</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00999353125624295</v>
+        <v>0.00999353054330655</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0457410644815503</v>
+        <v>0.0457410644743756</v>
       </c>
       <c r="M5" t="n">
-        <v>0.046087156243774</v>
+        <v>0.0460871562039195</v>
       </c>
       <c r="N5" t="n">
-        <v>0.879840790525731</v>
+        <v>0.879840787595773</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0559014098178087</v>
+        <v>0.0559014101830379</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0642577996564602</v>
+        <v>0.0642578022211894</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0374465570446741</v>
+        <v>0.0374465577349255</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0236844370686512</v>
+        <v>0.023684437035291</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0304179622675137</v>
+        <v>0.0304179632470514</v>
       </c>
       <c r="T5" t="n">
-        <v>0.979738078922047</v>
+        <v>0.979738077904658</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0202619210779529</v>
+        <v>0.0202619220953415</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0211302373677209</v>
+        <v>0.0211302383820369</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0211302373677209</v>
+        <v>0.0211302383820369</v>
       </c>
       <c r="X5" t="n">
-        <v>0.887237393226773</v>
+        <v>0.887237390834066</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.112762606773227</v>
+        <v>0.112762609165934</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0385767086999729</v>
+        <v>0.0385767092427808</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0385767086999729</v>
+        <v>0.0385767092427808</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0432282573130284</v>
+        <v>0.0432282567169169</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0322531336697992</v>
+        <v>0.0322531314924424</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.09738959794426</v>
+        <v>0.0973895982419558</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0879092404031914</v>
+        <v>0.0879092422611563</v>
       </c>
       <c r="AF5"/>
       <c r="AG5" t="n">
-        <v>0.559820262646228</v>
+        <v>0.559820264053302</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0755867584155051</v>
+        <v>0.0755867562824462</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0446665742608518</v>
+        <v>0.0446665761950192</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.059146175347136</v>
+        <v>0.0591461747567615</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0216028751027365</v>
+        <v>0.021602875003968</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0183550926857504</v>
+        <v>0.0183550915006633</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0307122545110131</v>
+        <v>0.0307122547079367</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.028389360613264</v>
+        <v>0.0283893612264536</v>
       </c>
       <c r="AO5"/>
       <c r="AP5" t="n">
-        <v>0.0482644929874582</v>
+        <v>0.0482644932451208</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0249923240051</v>
+        <v>0.0249923239632987</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0222317028265045</v>
+        <v>0.0222317037620517</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0177530785913941</v>
+        <v>0.0177530788122103</v>
       </c>
     </row>
     <row r="6">
@@ -1561,16 +1561,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.80650208936556</v>
+        <v>0.806502088125007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00203747828673611</v>
+        <v>0.00203747829184567</v>
       </c>
       <c r="D6" t="n">
         <v>58000</v>
       </c>
       <c r="E6" t="n">
-        <v>470.274558278112</v>
+        <v>471.947447655305</v>
       </c>
       <c r="F6" t="n">
         <v>336</v>
@@ -1579,118 +1579,118 @@
         <v>2.04085382769862</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0160788554831147</v>
+        <v>0.0160788553903569</v>
       </c>
       <c r="I6" t="n">
-        <v>0.688415507299122</v>
+        <v>0.68841550801206</v>
       </c>
       <c r="J6" t="n">
-        <v>0.295505637217763</v>
+        <v>0.295505636597583</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000782838206324587</v>
+        <v>0.000782838192422641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00269303157955567</v>
+        <v>0.00269303156728817</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0026447896621301</v>
+        <v>0.00264478965131259</v>
       </c>
       <c r="N6" t="n">
-        <v>0.930235893742688</v>
+        <v>0.930235893606055</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0381049700134738</v>
+        <v>0.0381049702161145</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0316591362438387</v>
+        <v>0.0316591361778303</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00219687988464928</v>
+        <v>0.00219687988412526</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00167744450027144</v>
+        <v>0.00167744450857246</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00144873703939651</v>
+        <v>0.00144873702915675</v>
       </c>
       <c r="T6" t="n">
-        <v>0.863360470986391</v>
+        <v>0.863360472820092</v>
       </c>
       <c r="U6" t="n">
-        <v>0.136639529013609</v>
+        <v>0.136639527179908</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00838384022930355</v>
+        <v>0.00838384008646108</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00838384022930355</v>
+        <v>0.00838384008646108</v>
       </c>
       <c r="X6" t="n">
-        <v>0.940465596979386</v>
+        <v>0.94046559694044</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0595344030206141</v>
+        <v>0.0595344030595597</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00255119123775671</v>
+        <v>0.00255119124336318</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.00255119123775671</v>
+        <v>0.00255119124336318</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.160393770819926</v>
+        <v>0.160393770587988</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0593132886527903</v>
+        <v>0.0593132887675046</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.130770172890918</v>
+        <v>0.130770172382561</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0825650329356772</v>
+        <v>0.0825650327458397</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0534419171298577</v>
+        <v>0.0534419175015704</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.14370331174239</v>
+        <v>0.143703312425067</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.178682821682552</v>
+        <v>0.178682823156572</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0765823073521858</v>
+        <v>0.0765823064935026</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.114547376793703</v>
+        <v>0.114547375939395</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.00220673313329075</v>
+        <v>0.00220673307898985</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.00148727362130446</v>
+        <v>0.00148727362202275</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.00211016210597237</v>
+        <v>0.00211016210024567</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.0016396183405296</v>
+        <v>0.00163961833572911</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0012899543780538</v>
+        <v>0.00128995438790186</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.00190735399133333</v>
+        <v>0.00190735399798687</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.00218002770039935</v>
+        <v>0.00218002771493953</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.00164429081535546</v>
+        <v>0.00164429079595118</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.00177747788270242</v>
+        <v>0.00177747787685204</v>
       </c>
     </row>
     <row r="7">
@@ -1698,136 +1698,136 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0123934790689126</v>
+        <v>0.0123934792567371</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000571987385662308</v>
+        <v>0.000571987395558902</v>
       </c>
       <c r="D7" t="n">
-        <v>36832.5466621022</v>
+        <v>36832.5457586453</v>
       </c>
       <c r="E7" t="n">
-        <v>2264.00158484728</v>
+        <v>2264.00178847349</v>
       </c>
       <c r="F7" t="n">
-        <v>193.884687747489</v>
+        <v>193.884686477414</v>
       </c>
       <c r="G7" t="n">
-        <v>10.7144825954177</v>
+        <v>11.2960536850197</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0220569010115961</v>
+        <v>0.022056900928548</v>
       </c>
       <c r="I7" t="n">
-        <v>0.471174148120245</v>
+        <v>0.471174148468465</v>
       </c>
       <c r="J7" t="n">
-        <v>0.506768950868159</v>
+        <v>0.506768950602987</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00657786920742872</v>
+        <v>0.00657786924578379</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02325722389355</v>
+        <v>0.0232572239457118</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0232372659750736</v>
+        <v>0.0232372660298286</v>
       </c>
       <c r="N7" t="n">
-        <v>0.903154621114851</v>
+        <v>0.903154622754097</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0649442073738605</v>
+        <v>0.0649442056940233</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0319011715112881</v>
+        <v>0.0319011715518802</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0163178321436333</v>
+        <v>0.0163178319655469</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0142011258703583</v>
+        <v>0.0142011255985327</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00845751776513585</v>
+        <v>0.00845751785927062</v>
       </c>
       <c r="T7" t="n">
-        <v>0.793338614811267</v>
+        <v>0.793338620512412</v>
       </c>
       <c r="U7" t="n">
-        <v>0.206661385188733</v>
+        <v>0.206661379487589</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0620399006469921</v>
+        <v>0.0620398992468063</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0620399006469921</v>
+        <v>0.0620398992468063</v>
       </c>
       <c r="X7" t="n">
-        <v>0.885903083358475</v>
+        <v>0.885903084729254</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.114096916641525</v>
+        <v>0.114096915270746</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0213734812871392</v>
+        <v>0.0213734810882789</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0213734812871392</v>
+        <v>0.0213734810882789</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.108198909532607</v>
+        <v>0.108198908542376</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0236959619529813</v>
+        <v>0.0236959620039371</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0417767113332979</v>
+        <v>0.0417767107820228</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.184428603736584</v>
+        <v>0.184428604315872</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0342028021725311</v>
+        <v>0.0342028021817216</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2175514962552</v>
+        <v>0.217551494739183</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.128341317381557</v>
+        <v>0.128341314939189</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.167724231158106</v>
+        <v>0.167724236924101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0940799664771346</v>
+        <v>0.0940799655715978</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0144770403841005</v>
+        <v>0.0144770402428154</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.00727340971175324</v>
+        <v>0.00727340972041911</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.00915588898713397</v>
+        <v>0.0091558889128806</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0189564212603698</v>
+        <v>0.0189564213714537</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.010029645953386</v>
+        <v>0.010029645961688</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0184457427649853</v>
+        <v>0.0184457427055297</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0153372850119568</v>
+        <v>0.0153372848330073</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0173555292954878</v>
+        <v>0.0173555297536625</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0125312752689392</v>
+        <v>0.0125312752487573</v>
       </c>
     </row>
     <row r="8">
@@ -1835,10 +1835,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0492243865709025</v>
+        <v>0.049224386303426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00100787642395062</v>
+        <v>0.0010078764170817</v>
       </c>
       <c r="D8" t="n">
         <v>78000</v>
@@ -1850,121 +1850,121 @@
         <v>396</v>
       </c>
       <c r="G8" t="n">
-        <v>7.98512150253807</v>
+        <v>7.98512035318293</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00818646894570053</v>
+        <v>0.00818646900148484</v>
       </c>
       <c r="I8" t="n">
-        <v>0.586188113857726</v>
+        <v>0.58618811646738</v>
       </c>
       <c r="J8" t="n">
-        <v>0.405625417196574</v>
+        <v>0.405625414531135</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0018360861239908</v>
+        <v>0.00183608612858068</v>
       </c>
       <c r="L8" t="n">
-        <v>0.010287792684883</v>
+        <v>0.0102877926471172</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0102584225815449</v>
+        <v>0.0102584225414506</v>
       </c>
       <c r="N8" t="n">
-        <v>0.944795087201096</v>
+        <v>0.944795086787258</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0382863647786195</v>
+        <v>0.0382863644101039</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0169185480202847</v>
+        <v>0.0169185488026383</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.00566993621554993</v>
+        <v>0.0056699362023647</v>
       </c>
       <c r="R8" t="n">
-        <v>0.00509540273317841</v>
+        <v>0.00509540264350729</v>
       </c>
       <c r="S8" t="n">
-        <v>0.00248524090668595</v>
+        <v>0.00248524106483871</v>
       </c>
       <c r="T8" t="n">
-        <v>0.88949533455916</v>
+        <v>0.889495333783809</v>
       </c>
       <c r="U8" t="n">
-        <v>0.11050466544084</v>
+        <v>0.110504666216191</v>
       </c>
       <c r="V8" t="n">
-        <v>0.016770625516544</v>
+        <v>0.0167706257080306</v>
       </c>
       <c r="W8" t="n">
-        <v>0.016770625516544</v>
+        <v>0.0167706257080306</v>
       </c>
       <c r="X8" t="n">
-        <v>0.967595740158615</v>
+        <v>0.967595739292309</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0324042598413845</v>
+        <v>0.0324042607076906</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.00626901018259461</v>
+        <v>0.0062690103454375</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.00626901018259461</v>
+        <v>0.0062690103454375</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.091718455652443</v>
+        <v>0.0917184567285077</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.019238996906742</v>
+        <v>0.0192389970342663</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.159126014802589</v>
+        <v>0.159126011865761</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0400678251515211</v>
+        <v>0.0400678250980116</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0407370452849475</v>
+        <v>0.0407370453813525</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.392673556267872</v>
+        <v>0.392673557113086</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.133577030103551</v>
+        <v>0.133577030617681</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0337439006617437</v>
+        <v>0.0337438998927543</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0891171751685899</v>
+        <v>0.0891171762685801</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.00611746236767039</v>
+        <v>0.00611746237787621</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.00339160857286973</v>
+        <v>0.00339160858491858</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.00867197406044966</v>
+        <v>0.00867197391896558</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.00429487331043881</v>
+        <v>0.00429487328996532</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.00390370445859997</v>
+        <v>0.00390370448109411</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.00998096806289663</v>
+        <v>0.00998096806866158</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.00677858274222576</v>
+        <v>0.00677858280236499</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0046039731508885</v>
+        <v>0.00460397305051583</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.00517452943990437</v>
+        <v>0.00517452949569675</v>
       </c>
     </row>
     <row r="9">
@@ -1972,16 +1972,16 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.138292902975974</v>
+        <v>0.138292904346155</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00177452052114183</v>
+        <v>0.00177452053017236</v>
       </c>
       <c r="D9" t="n">
         <v>36800</v>
       </c>
       <c r="E9" t="n">
-        <v>917.607235798398</v>
+        <v>917.544420527007</v>
       </c>
       <c r="F9" t="n">
         <v>215</v>
@@ -1990,118 +1990,118 @@
         <v>3.82660092693491</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0190669237030831</v>
+        <v>0.0190669237621586</v>
       </c>
       <c r="I9" t="n">
-        <v>0.430802822568129</v>
+        <v>0.430802822175909</v>
       </c>
       <c r="J9" t="n">
-        <v>0.550130253728788</v>
+        <v>0.550130254061932</v>
       </c>
       <c r="K9" t="n">
-        <v>0.00199182610093531</v>
+        <v>0.00199182610552929</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00689168856087569</v>
+        <v>0.00689168853740432</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00691482975398993</v>
+        <v>0.00691482973126306</v>
       </c>
       <c r="N9" t="n">
-        <v>0.780771341727574</v>
+        <v>0.780771343634579</v>
       </c>
       <c r="O9" t="n">
-        <v>0.107399666779926</v>
+        <v>0.107399665427258</v>
       </c>
       <c r="P9" t="n">
-        <v>0.111828991492501</v>
+        <v>0.111828990938164</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00655929564448328</v>
+        <v>0.00655929559519272</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00495418367761644</v>
+        <v>0.00495418360687946</v>
       </c>
       <c r="S9" t="n">
-        <v>0.00463162017913143</v>
+        <v>0.00463162017484759</v>
       </c>
       <c r="T9" t="n">
-        <v>0.838046623157399</v>
+        <v>0.838046622948502</v>
       </c>
       <c r="U9" t="n">
-        <v>0.161953376842601</v>
+        <v>0.161953377051499</v>
       </c>
       <c r="V9" t="n">
-        <v>0.019706501020584</v>
+        <v>0.0197065011738242</v>
       </c>
       <c r="W9" t="n">
-        <v>0.019706501020584</v>
+        <v>0.0197065011738242</v>
       </c>
       <c r="X9" t="n">
-        <v>0.901075711158755</v>
+        <v>0.901075711301291</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0989242888412449</v>
+        <v>0.0989242886987085</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.00548831848219213</v>
+        <v>0.00548831846696312</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.00548831848219213</v>
+        <v>0.00548831846696312</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.141148493947177</v>
+        <v>0.141148495913654</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0963564491842722</v>
+        <v>0.096356448024396</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.147232947672778</v>
+        <v>0.147232946600397</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0216741180981861</v>
+        <v>0.0216741176894096</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0242430842600905</v>
+        <v>0.0242430843804964</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0650560379940772</v>
+        <v>0.0650560375247617</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.331367389289537</v>
+        <v>0.331367390764676</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0353630483724256</v>
+        <v>0.0353630483795778</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.137558431181456</v>
+        <v>0.137558430722631</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.00474203324158611</v>
+        <v>0.00474203329269319</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.00441770477279826</v>
+        <v>0.00441770471953709</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.00535283302956518</v>
+        <v>0.005352833005044</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.00189053306089277</v>
+        <v>0.00189053301969003</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.00200910775700815</v>
+        <v>0.00200910775218089</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.00295055498640687</v>
+        <v>0.00295055495999615</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.00642491358335483</v>
+        <v>0.00642491356397937</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.00311556335534401</v>
+        <v>0.00311556335973894</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.00438529723787643</v>
+        <v>0.00438529721048621</v>
       </c>
     </row>
     <row r="10">
@@ -2109,136 +2109,136 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00364035241411018</v>
+        <v>0.00364035239694076</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000299319580503749</v>
+        <v>0.000299319579736776</v>
       </c>
       <c r="D10" t="n">
-        <v>58441.8456379013</v>
+        <v>58441.8458443933</v>
       </c>
       <c r="E10" t="n">
-        <v>5206.06074881318</v>
+        <v>5206.0607718032</v>
       </c>
       <c r="F10" t="n">
-        <v>260.799403915452</v>
+        <v>260.799403441675</v>
       </c>
       <c r="G10" t="n">
-        <v>17.1147409372596</v>
+        <v>17.0921508069759</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0135799451698541</v>
+        <v>0.0135799442982048</v>
       </c>
       <c r="I10" t="n">
-        <v>0.383880114926295</v>
+        <v>0.383880114729966</v>
       </c>
       <c r="J10" t="n">
-        <v>0.602539939903851</v>
+        <v>0.602539940971829</v>
       </c>
       <c r="K10" t="n">
-        <v>0.009551022126301</v>
+        <v>0.00955102151819351</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0400850233317078</v>
+        <v>0.0400850234412429</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0403330226503193</v>
+        <v>0.0403330227264205</v>
       </c>
       <c r="N10" t="n">
-        <v>0.903048385229957</v>
+        <v>0.903048382124049</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0446319649180152</v>
+        <v>0.0446319654786295</v>
       </c>
       <c r="P10" t="n">
-        <v>0.052319649852028</v>
+        <v>0.0523196523973216</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0292119876325216</v>
+        <v>0.0292119884437318</v>
       </c>
       <c r="R10" t="n">
-        <v>0.018301457431911</v>
+        <v>0.0183014575668978</v>
       </c>
       <c r="S10" t="n">
-        <v>0.023567925546683</v>
+        <v>0.0235679265405173</v>
       </c>
       <c r="T10" t="n">
-        <v>0.926634461564662</v>
+        <v>0.926634471476994</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0733655384353382</v>
+        <v>0.0733655285230062</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0478739337778652</v>
+        <v>0.0478739255697957</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0478739337778652</v>
+        <v>0.0478739255697957</v>
       </c>
       <c r="X10" t="n">
-        <v>0.904323844462616</v>
+        <v>0.904323841697335</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0956761555373838</v>
+        <v>0.095676158302665</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0309478544378581</v>
+        <v>0.0309478551270353</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0309478544378581</v>
+        <v>0.0309478551270353</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0742372119319603</v>
+        <v>0.0742372108769715</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0229843249229422</v>
+        <v>0.0229843233925316</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0995499789841581</v>
+        <v>0.0995499806208933</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0837596416276679</v>
+        <v>0.0837596441033417</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.00459780625944621</v>
+        <v>0.00459780661401058</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.535340001316159</v>
+        <v>0.535340000786758</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0763834063836429</v>
+        <v>0.076383405079821</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0497252874375508</v>
+        <v>0.0497252877419375</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0534223411364723</v>
+        <v>0.0534223407837345</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0228235970599376</v>
+        <v>0.0228235968683811</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0131538332476239</v>
+        <v>0.0131538324002297</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0261530982412786</v>
+        <v>0.0261530987623836</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0229396929432851</v>
+        <v>0.0229396936131328</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.00325826314039488</v>
+        <v>0.00325826339060381</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0410992290863391</v>
+        <v>0.0410992291927526</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0201710952347517</v>
+        <v>0.0201710950191042</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0200025855344432</v>
+        <v>0.0200025856374484</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0145600398499311</v>
+        <v>0.0145600399096281</v>
       </c>
     </row>
     <row r="11">
@@ -2246,10 +2246,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>0.796448878970101</v>
+        <v>0.796448877696741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00203269828758868</v>
+        <v>0.0020326982925151</v>
       </c>
       <c r="D11" t="n">
         <v>59000</v>
@@ -2264,118 +2264,118 @@
         <v>2.04085382769862</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0161587528742678</v>
+        <v>0.0161587527896077</v>
       </c>
       <c r="I11" t="n">
-        <v>0.684344205772386</v>
+        <v>0.684344206532818</v>
       </c>
       <c r="J11" t="n">
-        <v>0.299497041353346</v>
+        <v>0.299497040677574</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000770199955780319</v>
+        <v>0.000770199942872264</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00265726349707656</v>
+        <v>0.00265726348590365</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00261104368084897</v>
+        <v>0.00261104367096619</v>
       </c>
       <c r="N11" t="n">
-        <v>0.930108219452295</v>
+        <v>0.930108219325391</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0377009121068377</v>
+        <v>0.0377009123022627</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0321908684408672</v>
+        <v>0.0321908683723466</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.00214359555493671</v>
+        <v>0.00214359555450895</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00162314669553705</v>
+        <v>0.00162314670247476</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00142894120472455</v>
+        <v>0.00142894119634229</v>
       </c>
       <c r="T11" t="n">
-        <v>0.859465252444411</v>
+        <v>0.859465254384675</v>
       </c>
       <c r="U11" t="n">
-        <v>0.140534747555589</v>
+        <v>0.140534745615325</v>
       </c>
       <c r="V11" t="n">
-        <v>0.00835257290642367</v>
+        <v>0.00835257276171776</v>
       </c>
       <c r="W11" t="n">
-        <v>0.00835257290642367</v>
+        <v>0.00835257276171776</v>
       </c>
       <c r="X11" t="n">
-        <v>0.939551794024144</v>
+        <v>0.939551794012771</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0604482059758563</v>
+        <v>0.0604482059872289</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00250767527943459</v>
+        <v>0.00250767528510473</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.00250767527943459</v>
+        <v>0.00250767528510473</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.159778762955405</v>
+        <v>0.159778762811181</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0587560424007442</v>
+        <v>0.0587560424872509</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.129731274561182</v>
+        <v>0.129731274083523</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0824259557006988</v>
+        <v>0.0824259555267252</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0527853318473972</v>
+        <v>0.052785332209156</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.146180946531203</v>
+        <v>0.146180947139821</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.179262557667147</v>
+        <v>0.179262559100227</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0769959879816481</v>
+        <v>0.0769959871332598</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.114083140354574</v>
+        <v>0.114083139508857</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.00216562005143397</v>
+        <v>0.002165620003181</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.00145218421272199</v>
+        <v>0.00145218421293522</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.00206650443541561</v>
+        <v>0.00206650443041138</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.00160767526350956</v>
+        <v>0.00160767525935421</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0012579007626928</v>
+        <v>0.00125790077218751</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.00188852899496974</v>
+        <v>0.00188852900057804</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.00214501702244862</v>
+        <v>0.00214501703639981</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.00162346423645094</v>
+        <v>0.00162346421821241</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.00174289562671352</v>
+        <v>0.00174289562101643</v>
       </c>
     </row>
   </sheetData>
@@ -2534,13 +2534,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.135614608149911</v>
+        <v>0.135614607913346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00167915539375397</v>
+        <v>0.00167915539334304</v>
       </c>
       <c r="D2" t="n">
-        <v>46475.3540405315</v>
+        <v>46475.3540703757</v>
       </c>
       <c r="E2" t="n">
         <v>765.320185386981</v>
@@ -2552,118 +2552,118 @@
         <v>3.31638747001025</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0173393492565929</v>
+        <v>0.0173393491916243</v>
       </c>
       <c r="I2" t="n">
-        <v>0.470336857092185</v>
+        <v>0.470336857597501</v>
       </c>
       <c r="J2" t="n">
-        <v>0.512323793651222</v>
+        <v>0.512323793210875</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00185678372853144</v>
+        <v>0.00185678373380407</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00659867253657135</v>
+        <v>0.00659867255195064</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00661073035705496</v>
+        <v>0.00661073037181588</v>
       </c>
       <c r="N2" t="n">
-        <v>0.90442603384793</v>
+        <v>0.904426033329181</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0481369211759804</v>
+        <v>0.0481369216539242</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0474370449760894</v>
+        <v>0.0474370450168948</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00479791081807564</v>
+        <v>0.0047979108222254</v>
       </c>
       <c r="R2" t="n">
-        <v>0.00358488081616452</v>
+        <v>0.00358488083868577</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00331826700270178</v>
+        <v>0.00331826698319241</v>
       </c>
       <c r="T2" t="n">
-        <v>0.862185555020001</v>
+        <v>0.862185556112224</v>
       </c>
       <c r="U2" t="n">
-        <v>0.137814444979999</v>
+        <v>0.137814443887776</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0132264735509267</v>
+        <v>0.0132264734339167</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0132264735509267</v>
+        <v>0.0132264734339167</v>
       </c>
       <c r="X2" t="n">
-        <v>0.925293781210518</v>
+        <v>0.92529378106284</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0747062187894817</v>
+        <v>0.0747062189371597</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.00493994570925453</v>
+        <v>0.00493994571172624</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00493994570925453</v>
+        <v>0.00493994571172624</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0662709368308576</v>
+        <v>0.0662709370378348</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0115931371537459</v>
+        <v>0.0115931371913698</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.125372965738862</v>
+        <v>0.125372966835918</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.105209692854586</v>
+        <v>0.105209694106643</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0341647156994765</v>
+        <v>0.034164715984227</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.27029968227419</v>
+        <v>0.270299683299508</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.162481965367418</v>
+        <v>0.16248196540314</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0218595888552118</v>
+        <v>0.0218595882226616</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.202747315225651</v>
+        <v>0.202747311918698</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0031234367786643</v>
+        <v>0.00312343679175189</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.00141023378666869</v>
+        <v>0.00141023379344551</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.00539388499424674</v>
+        <v>0.00539388504020463</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.00438246400058114</v>
+        <v>0.00438246403943746</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.002508910741499</v>
+        <v>0.00250891075781398</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00561343247273183</v>
+        <v>0.00561343249660746</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00448671524694686</v>
+        <v>0.00448671525816933</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.00204071810229216</v>
+        <v>0.00204071804368633</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0050592857042078</v>
+        <v>0.00505928565396299</v>
       </c>
     </row>
     <row r="3">
@@ -2671,10 +2671,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.864385391850089</v>
+        <v>0.864385392086654</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00167915539375397</v>
+        <v>0.00167915539334304</v>
       </c>
       <c r="D3" t="n">
         <v>57600</v>
@@ -2689,118 +2689,118 @@
         <v>2.04085382769862</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0159437931634248</v>
+        <v>0.0159437931121434</v>
       </c>
       <c r="I3" t="n">
-        <v>0.664414815377288</v>
+        <v>0.664414815622727</v>
       </c>
       <c r="J3" t="n">
-        <v>0.319641391459287</v>
+        <v>0.31964139126513</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000726038714454079</v>
+        <v>0.00072603870362486</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00257792089534283</v>
+        <v>0.00257792088528786</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00253965761221071</v>
+        <v>0.00253965760323799</v>
       </c>
       <c r="N3" t="n">
-        <v>0.894917890405923</v>
+        <v>0.894917890391091</v>
       </c>
       <c r="O3" t="n">
-        <v>0.055311518116596</v>
+        <v>0.0553115179717673</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0497705914774807</v>
+        <v>0.0497705916371419</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00240068875875102</v>
+        <v>0.00240068875800038</v>
       </c>
       <c r="R3" t="n">
-        <v>0.00182184817047938</v>
+        <v>0.00182184816260205</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00161148124950734</v>
+        <v>0.001611481258335</v>
       </c>
       <c r="T3" t="n">
-        <v>0.855674018851189</v>
+        <v>0.855674020281264</v>
       </c>
       <c r="U3" t="n">
-        <v>0.144325981148811</v>
+        <v>0.144325979718736</v>
       </c>
       <c r="V3" t="n">
-        <v>0.00824003824113857</v>
+        <v>0.00824003817597515</v>
       </c>
       <c r="W3" t="n">
-        <v>0.00824003824113857</v>
+        <v>0.00824003817597515</v>
       </c>
       <c r="X3" t="n">
-        <v>0.933181922774178</v>
+        <v>0.933181922648957</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0668180772258221</v>
+        <v>0.0668180773510425</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.00242598275742668</v>
+        <v>0.00242598276490039</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.00242598275742668</v>
+        <v>0.00242598276490039</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.165874216517321</v>
+        <v>0.165874216639532</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0687665488045675</v>
+        <v>0.0687665487462674</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.132787024267537</v>
+        <v>0.132787023332901</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0683506333733398</v>
+        <v>0.0683506328995441</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0499269221494751</v>
+        <v>0.0499269224097458</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.131804455668368</v>
+        <v>0.131804455855084</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.202673794534638</v>
+        <v>0.202673796346758</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0777199928972813</v>
+        <v>0.0777199922264942</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.102096411787473</v>
+        <v>0.102096411543674</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.00209025861638953</v>
+        <v>0.00209025857700221</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.00149533153077722</v>
+        <v>0.00149533152763314</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.00196135506225206</v>
+        <v>0.00196135505139103</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.00139327317005006</v>
+        <v>0.00139327316081972</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.00115833400044615</v>
+        <v>0.00115833400719076</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0017153352735198</v>
+        <v>0.00171533527460903</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0021667856109403</v>
+        <v>0.00216678562177838</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.00157525551304694</v>
+        <v>0.00157525549948316</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.00157913000701787</v>
+        <v>0.0015791300058582</v>
       </c>
     </row>
     <row r="4">
@@ -2808,10 +2808,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.135699204549523</v>
+        <v>0.135699204314878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00167905245571295</v>
+        <v>0.00167905245536844</v>
       </c>
       <c r="D4" t="n">
         <v>46000</v>
@@ -2826,118 +2826,118 @@
         <v>3.06128074154792</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0172013864924276</v>
+        <v>0.0172013864311668</v>
       </c>
       <c r="I4" t="n">
-        <v>0.470593699772411</v>
+        <v>0.470593700448671</v>
       </c>
       <c r="J4" t="n">
-        <v>0.512204913735162</v>
+        <v>0.512204913120163</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00185144932565586</v>
+        <v>0.00185144933117065</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00659512952486624</v>
+        <v>0.00659512954087797</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00660648314715455</v>
+        <v>0.00660648316228691</v>
       </c>
       <c r="N4" t="n">
-        <v>0.904413508930821</v>
+        <v>0.904413508376556</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0481691132609663</v>
+        <v>0.0481691137587005</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0474173778082129</v>
+        <v>0.0474173778647433</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00479628285061978</v>
+        <v>0.00479628285603833</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00358429462924347</v>
+        <v>0.00358429465281999</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00331711390792112</v>
+        <v>0.0033171138893778</v>
       </c>
       <c r="T4" t="n">
-        <v>0.861174772165353</v>
+        <v>0.861174773236079</v>
       </c>
       <c r="U4" t="n">
-        <v>0.138825227834647</v>
+        <v>0.13882522676392</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0133120647557192</v>
+        <v>0.0133120646405408</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0133120647557192</v>
+        <v>0.0133120646405408</v>
       </c>
       <c r="X4" t="n">
-        <v>0.924675954935661</v>
+        <v>0.924675954861874</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0753240450643387</v>
+        <v>0.0753240451381258</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.00495296956026652</v>
+        <v>0.00495296956104786</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.00495296956026652</v>
+        <v>0.00495296956104786</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0656774887213749</v>
+        <v>0.0656774888154742</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0119608570630619</v>
+        <v>0.0119608570616365</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.124388783894002</v>
+        <v>0.124388785001843</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.104333035091786</v>
+        <v>0.104333036389016</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0341035968861219</v>
+        <v>0.0341035971897261</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.270721544172296</v>
+        <v>0.27072154514494</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.163369701448242</v>
+        <v>0.163369701607433</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.0218312911461686</v>
+        <v>0.0218312905417356</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.203613701576948</v>
+        <v>0.203613698248195</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.00309697909198874</v>
+        <v>0.00309697910065223</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.00143240488160555</v>
+        <v>0.00143240488358596</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.00536086718046973</v>
+        <v>0.00536086722698375</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.00436678804005115</v>
+        <v>0.00436678808132021</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.00252353074669364</v>
+        <v>0.0025235307666936</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.00561730316110858</v>
+        <v>0.00561730318409346</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.00449895367362211</v>
+        <v>0.00449895368799895</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.00203844533079504</v>
+        <v>0.00203844527417064</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.00507101786872923</v>
+        <v>0.00507101781778746</v>
       </c>
     </row>
     <row r="5">
@@ -2945,10 +2945,10 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.864300795450477</v>
+        <v>0.864300795685122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00167905245571295</v>
+        <v>0.00167905245536844</v>
       </c>
       <c r="D5" t="n">
         <v>57600</v>
@@ -2963,118 +2963,118 @@
         <v>2.04085382769862</v>
       </c>
       <c r="H5" t="n">
-        <v>0.015965317357816</v>
+        <v>0.0159653173059075</v>
       </c>
       <c r="I5" t="n">
-        <v>0.664393485938529</v>
+        <v>0.66439348615761</v>
       </c>
       <c r="J5" t="n">
-        <v>0.319641196703655</v>
+        <v>0.319641196536483</v>
       </c>
       <c r="K5" t="n">
-        <v>0.000726373946970086</v>
+        <v>0.000726373936128152</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00257860465617207</v>
+        <v>0.00257860464625734</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00254035239574658</v>
+        <v>0.00254035238693323</v>
       </c>
       <c r="N5" t="n">
-        <v>0.894920666141944</v>
+        <v>0.894920666136643</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0553037913577867</v>
+        <v>0.055303791207508</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0497755425002691</v>
+        <v>0.0497755426558487</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0024009104055297</v>
+        <v>0.00240091040462163</v>
       </c>
       <c r="R5" t="n">
-        <v>0.00182193040348354</v>
+        <v>0.00182193039547307</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00161162989154562</v>
+        <v>0.0016116299002561</v>
       </c>
       <c r="T5" t="n">
-        <v>0.856151790433431</v>
+        <v>0.856151791880476</v>
       </c>
       <c r="U5" t="n">
-        <v>0.143848209566568</v>
+        <v>0.143848208119524</v>
       </c>
       <c r="V5" t="n">
-        <v>0.00821650974963193</v>
+        <v>0.00821650968367839</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00821650974963192</v>
+        <v>0.00821650968367838</v>
       </c>
       <c r="X5" t="n">
-        <v>0.933340028426254</v>
+        <v>0.933340028281527</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0666599715737464</v>
+        <v>0.0666599717184727</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00242421166175574</v>
+        <v>0.00242421166948146</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.00242421166175574</v>
+        <v>0.00242421166948146</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.165977139615063</v>
+        <v>0.165977139755021</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0687144111290624</v>
+        <v>0.0687144110771248</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.132942271025198</v>
+        <v>0.132942270088377</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0684846649720133</v>
+        <v>0.0684846644905999</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0499380608645169</v>
+        <v>0.0499380611218404</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.131724665713412</v>
+        <v>0.131724665908145</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.202538349795269</v>
+        <v>0.202538351588544</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0777299032962022</v>
+        <v>0.0777299026211106</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.101950533589263</v>
+        <v>0.101950533349237</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.00209113877542265</v>
+        <v>0.00209113873617537</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.00149501418218595</v>
+        <v>0.0014950141791412</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.00196362611768189</v>
+        <v>0.00196362610681396</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.00139455788908777</v>
+        <v>0.00139455787966645</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.00115761239708035</v>
+        <v>0.00115761240363625</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.00171455760890129</v>
+        <v>0.00171455761010238</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.00216635040884362</v>
+        <v>0.00216635041955741</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.00157543702969959</v>
+        <v>0.00157543701608165</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.00157774401186415</v>
+        <v>0.00157774401082974</v>
       </c>
     </row>
   </sheetData>
